--- a/公司发热量加权平均.xlsx
+++ b/公司发热量加权平均.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/13_入厂煤/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDE2F38A05FB2D4C05BD6B601258CE8942" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E84ADFBE-ED1B-451F-B4FD-FB57042DCC7B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>公司名称</t>
   </si>
@@ -43,6 +49,9 @@
     <t>大同煤矿集团北辛窑煤业有限公司（6-1火车）</t>
   </si>
   <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（7-1火车）</t>
+  </si>
+  <si>
     <t>大同煤矿集团朔煤小峪煤业有限公司（10-1宝特）</t>
   </si>
   <si>
@@ -133,6 +142,9 @@
     <t>山西汾河焦煤股份有限公司三交河煤矿（6-1）</t>
   </si>
   <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（7-1）</t>
+  </si>
+  <si>
     <t>山西焦煤汾西矿业昊兴塬煤业（4-1）</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>山西焦煤汾西矿业昊兴塬煤业（7-1）</t>
   </si>
   <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业（8-1）</t>
+  </si>
+  <si>
     <t>山西焦煤物流有限责任公司（2-1）</t>
   </si>
   <si>
@@ -176,6 +191,9 @@
   </si>
   <si>
     <t>山西焦煤霍州煤电雪坪煤业有限公司（7-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（8-1）</t>
   </si>
   <si>
     <t>山西煤炭运销集团四明山煤业有限公司（2-1）</t>
@@ -244,12 +262,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -257,8 +275,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -304,17 +329,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +385,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -386,6 +419,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -420,9 +454,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,14 +630,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -624,7 +664,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -635,7 +675,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -646,7 +686,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -654,10 +694,10 @@
         <v>60375.58</v>
       </c>
       <c r="C5">
-        <v>3401.30288172801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3401.3028817280101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -665,747 +705,792 @@
         <v>88461.25</v>
       </c>
       <c r="C6">
-        <v>3344.162794104763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3344.1627941047632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>15301.62</v>
+        <v>21117.8</v>
       </c>
       <c r="C7">
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3725.9</v>
+        <v>9975.32</v>
       </c>
       <c r="C8">
-        <v>4356.116723476208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>7256.7</v>
+        <v>3725.9</v>
       </c>
       <c r="C9">
-        <v>4365.905466672179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>4356.1167234762079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>6806.02</v>
+        <v>7256.7</v>
       </c>
       <c r="C10">
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>4365.9054666721786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>17733.2</v>
+        <v>6806.02</v>
       </c>
       <c r="C11">
-        <v>3418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>6973.04</v>
+        <v>17733.2</v>
       </c>
       <c r="C12">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>3702.16</v>
+        <v>6973.04</v>
       </c>
       <c r="C13">
-        <v>3319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>9279.440000000001</v>
+        <v>20641.68</v>
       </c>
       <c r="C14">
-        <v>2913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>3439.2781517783442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>10732.63</v>
+        <v>9279.44</v>
       </c>
       <c r="C15">
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>3524.66</v>
+        <v>10732.63</v>
       </c>
       <c r="C16">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>10867.26</v>
+        <v>3524.66</v>
       </c>
       <c r="C17">
-        <v>4738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>5729.34</v>
+        <v>10867.26</v>
       </c>
       <c r="C18">
-        <v>4585.265217285063</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>14773.68</v>
+        <v>5729.34</v>
       </c>
       <c r="C19">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>4585.265217285063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>17580.04</v>
+        <v>14773.68</v>
       </c>
       <c r="C20">
-        <v>4755.283468069469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>14081.22</v>
+        <v>17580.04</v>
       </c>
       <c r="C21">
-        <v>4813.38270121481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>4755.2834680694687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>10702.46</v>
+        <v>14081.22</v>
       </c>
       <c r="C22">
-        <v>4683.430915882892</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>4813.3827012148104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>19709.62</v>
+        <v>10702.46</v>
       </c>
       <c r="C23">
-        <v>4657.53266273018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>4683.4309158828919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>7366.666</v>
+        <v>19709.62</v>
       </c>
       <c r="C24">
-        <v>3930</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>4657.5326627301802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>4214.9</v>
+        <v>7366.6660000000002</v>
       </c>
       <c r="C25">
-        <v>4548</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>3599.92</v>
+        <v>12714.02</v>
       </c>
       <c r="C26">
-        <v>4206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>4589.4401613337086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>19953.04</v>
+        <v>3599.92</v>
       </c>
       <c r="C27">
-        <v>3957.190051240313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>18665.58</v>
+        <v>19953.04</v>
       </c>
       <c r="C28">
-        <v>3954.746185224355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>3957.1900512403131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>2002.74</v>
+        <v>18665.580000000002</v>
       </c>
       <c r="C29">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>3954.746185224355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>2164.28</v>
+        <v>2002.74</v>
       </c>
       <c r="C30">
-        <v>4001.07488864657</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>1188.36</v>
+        <v>2164.2800000000002</v>
       </c>
       <c r="C31">
-        <v>3944</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>4001.0748886465699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>2502.76</v>
+        <v>1188.3599999999999</v>
       </c>
       <c r="C32">
-        <v>4422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>3635.56</v>
+        <v>2502.7600000000002</v>
       </c>
       <c r="C33">
-        <v>4758.694957585627</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>5544.48</v>
+        <v>3635.56</v>
       </c>
       <c r="C34">
-        <v>4278.907756904164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>4758.694957585627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>9900.34</v>
+        <v>5544.48</v>
       </c>
       <c r="C35">
-        <v>4422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>4278.9077569041638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>3604.16</v>
+        <v>9900.34</v>
       </c>
       <c r="C36">
-        <v>4254.887063837343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>1590.94</v>
+        <v>3604.16</v>
       </c>
       <c r="C37">
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>4254.8870638373428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>2352.94</v>
+        <v>1590.94</v>
       </c>
       <c r="C38">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>4883.32</v>
+        <v>3481.32</v>
       </c>
       <c r="C39">
-        <v>3779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>3931.62</v>
+        <v>2352.94</v>
       </c>
       <c r="C40">
-        <v>3656.176878742097</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>3114.68</v>
+        <v>4883.32</v>
       </c>
       <c r="C41">
-        <v>3548</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>19002.38</v>
+        <v>3931.62</v>
       </c>
       <c r="C42">
-        <v>4144.070088062654</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>3656.176878742097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>1449.92</v>
+        <v>5187.84</v>
       </c>
       <c r="C43">
-        <v>3475.748027477378</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>3471.9714139217858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>9355.040000000001</v>
+        <v>245.56</v>
       </c>
       <c r="C44">
-        <v>3382</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>866.28</v>
+        <v>19002.38</v>
       </c>
       <c r="C45">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>4144.0700880626537</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
-        <v>1790.1</v>
+        <v>1449.92</v>
       </c>
       <c r="C46">
-        <v>2923</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>3475.7480274773779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
-        <v>2482.3</v>
+        <v>9355.0400000000009</v>
       </c>
       <c r="C47">
-        <v>3869.438504612657</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
-        <v>2485.74</v>
+        <v>866.28</v>
       </c>
       <c r="C48">
-        <v>3912</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
-        <v>2876.64</v>
+        <v>2425.16</v>
       </c>
       <c r="C49">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
-        <v>4962.66</v>
+        <v>2482.3000000000002</v>
       </c>
       <c r="C50">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>3869.4385046126572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1427.8</v>
+        <v>2485.7399999999998</v>
       </c>
       <c r="C51">
-        <v>3197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
-        <v>330.1</v>
+        <v>2876.64</v>
       </c>
       <c r="C52">
-        <v>2881</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
-        <v>1820.28</v>
+        <v>4962.66</v>
       </c>
       <c r="C53">
-        <v>4637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>2181.68</v>
+        <v>1427.8</v>
       </c>
       <c r="C54">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55">
-        <v>80972.92</v>
+        <v>330.1</v>
       </c>
       <c r="C55">
-        <v>3561.141149411433</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
-        <v>54248.43</v>
+        <v>306</v>
       </c>
       <c r="C56">
-        <v>3533.865743948719</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57">
-        <v>41768.25999999999</v>
+        <v>1820.28</v>
       </c>
       <c r="C57">
-        <v>3673.115142455059</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58">
-        <v>33785.08</v>
+        <v>2181.6799999999998</v>
       </c>
       <c r="C58">
-        <v>4086.258053555001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59">
-        <v>28066.04</v>
+        <v>80972.92</v>
       </c>
       <c r="C59">
-        <v>4274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>3561.1411494114332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60">
-        <v>61.04</v>
+        <v>54248.43</v>
       </c>
       <c r="C60">
-        <v>4156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>3533.8657439487188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61">
-        <v>826.3200000000001</v>
+        <v>41768.259999999987</v>
       </c>
       <c r="C61">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>3673.115142455059</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62">
-        <v>22390.22</v>
+        <v>33785.08</v>
       </c>
       <c r="C62">
-        <v>3738</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>4086.258053555001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63">
-        <v>3636.5</v>
+        <v>46949.18</v>
       </c>
       <c r="C63">
-        <v>3542</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>4157.0960600376829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64">
-        <v>13608.23</v>
+        <v>61.04</v>
       </c>
       <c r="C64">
-        <v>3913</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65">
-        <v>27057.91</v>
+        <v>826.32</v>
       </c>
       <c r="C65">
-        <v>4877</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66">
-        <v>2917.8</v>
+        <v>22390.22</v>
       </c>
       <c r="C66">
-        <v>5177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67">
-        <v>32324.05</v>
+        <v>3636.5</v>
       </c>
       <c r="C67">
-        <v>5021.129882239386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68">
-        <v>12340.99</v>
+        <v>13608.23</v>
       </c>
       <c r="C68">
-        <v>4673</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69">
-        <v>1884.42</v>
+        <v>27057.91</v>
       </c>
       <c r="C69">
-        <v>3274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70">
-        <v>1605.86</v>
+        <v>2917.8</v>
       </c>
       <c r="C70">
-        <v>4890</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71">
-        <v>15211.08</v>
+        <v>32324.05</v>
       </c>
       <c r="C71">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>5021.1298822393856</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72">
-        <v>27216.53</v>
+        <v>12340.99</v>
       </c>
       <c r="C72">
-        <v>3671</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73">
+        <v>1884.42</v>
+      </c>
+      <c r="C73">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>1605.86</v>
+      </c>
+      <c r="C74">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>15211.08</v>
+      </c>
+      <c r="C75">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>27216.53</v>
+      </c>
+      <c r="C76">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
         <v>12370.01</v>
       </c>
-      <c r="C73">
+      <c r="C77">
         <v>4233</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/公司发热量加权平均.xlsx
+++ b/公司发热量加权平均.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/13_入厂煤/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDE2F38A05FB2D4C05BD6B601258CE8942" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E84ADFBE-ED1B-451F-B4FD-FB57042DCC7B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_23F921EDE2F38A05FB2D4C05BD6B601258CE8942" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6B80BE8-5626-43AE-AD63-490685A556DB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -633,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
